--- a/data/trans_dic/P70B_R_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R_2023-Clase-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.8944388101081354</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9107192621672076</v>
+        <v>0.9107192621672077</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8899649178526658</v>
+        <v>0.8899600883691915</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8623965524214914</v>
+        <v>0.8588572464851241</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.886503605223275</v>
+        <v>0.8874062974620726</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9529724944637972</v>
+        <v>0.9522856893591672</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.922035348628512</v>
+        <v>0.9212776303597427</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9297662251779196</v>
+        <v>0.9310129543463381</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.8752177306105134</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9021981784623996</v>
+        <v>0.9021981784623995</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.887652485413099</v>
+        <v>0.8876524854130992</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8232533718324165</v>
+        <v>0.827646499466112</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.867867711206139</v>
+        <v>0.8658124888723536</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8560738430745159</v>
+        <v>0.8601674355813527</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9121124807202353</v>
+        <v>0.9117116683538918</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9316446565712834</v>
+        <v>0.930968039556936</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.913511342043885</v>
+        <v>0.914727756095907</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.8515358167713996</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.807959150583769</v>
+        <v>0.8079591505837693</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8413855329182947</v>
+        <v>0.8413855329182945</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7956036497788378</v>
+        <v>0.7966936700194404</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.716005556936671</v>
+        <v>0.7246117599382167</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7959237433988673</v>
+        <v>0.7976218224828756</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8932630263270047</v>
+        <v>0.8905110223996787</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.874106644345782</v>
+        <v>0.8797304851221402</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8759517143672337</v>
+        <v>0.8799630694038525</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7464293199308625</v>
+        <v>0.746532221227612</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7703153422316591</v>
+        <v>0.7698788011721953</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7661732846700562</v>
+        <v>0.7680816054208173</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8253808330842121</v>
+        <v>0.8268564911076213</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8333707897897417</v>
+        <v>0.8343399347104981</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8186255716688974</v>
+        <v>0.8208426077172566</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8620784923513384</v>
+        <v>0.8620784923513383</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.8495704943123452</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8011005236604233</v>
+        <v>0.8026111687328248</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8059797971351205</v>
+        <v>0.8079883820982909</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8239819520842538</v>
+        <v>0.8214082219469331</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9033469766992672</v>
+        <v>0.9035092447774071</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8841479050970685</v>
+        <v>0.8852795069679591</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8840352019645941</v>
+        <v>0.8839617026722155</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.8517982582517378</v>
+        <v>0.8517982582517379</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.8518439004937614</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8337989763713166</v>
+        <v>0.8322386131490039</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8343077317218024</v>
+        <v>0.8366234208236025</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8381015378807362</v>
+        <v>0.8384408075294236</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8715414512540901</v>
+        <v>0.8706070232049624</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8677761846871261</v>
+        <v>0.8687588337860209</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8645749250762994</v>
+        <v>0.8648506284033214</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>331890</v>
+        <v>331888</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>287508</v>
+        <v>286328</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>626145</v>
+        <v>626782</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>355387</v>
+        <v>355131</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>307391</v>
+        <v>307138</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>656701</v>
+        <v>657582</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>261117</v>
+        <v>262510</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>235319</v>
+        <v>234762</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>503648</v>
+        <v>506056</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>289301</v>
+        <v>289174</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>252612</v>
+        <v>252428</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>537440</v>
+        <v>538155</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>212124</v>
+        <v>212414</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>57969</v>
+        <v>58666</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>276649</v>
+        <v>277239</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>238162</v>
+        <v>237428</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>70769</v>
+        <v>71225</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>304465</v>
+        <v>305859</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>458470</v>
+        <v>458534</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>364529</v>
+        <v>364323</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>833166</v>
+        <v>835241</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>506964</v>
+        <v>507870</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>394369</v>
+        <v>394827</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>890205</v>
+        <v>892615</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>245271</v>
+        <v>245733</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>246648</v>
+        <v>247263</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>504434</v>
+        <v>502858</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>276575</v>
+        <v>276625</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>270570</v>
+        <v>270916</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>541198</v>
+        <v>541153</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1565129</v>
+        <v>1562200</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1222041</v>
+        <v>1225432</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2800803</v>
+        <v>2801937</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1635976</v>
+        <v>1634222</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1271063</v>
+        <v>1272502</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2889273</v>
+        <v>2890194</v>
       </c>
     </row>
     <row r="28">
